--- a/public/files/upload_klanten.xlsx
+++ b/public/files/upload_klanten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaaper/Desktop/tempflynth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://continuitas.sharepoint.com/sites/TrustedAccountant/Gedeelde documenten/Dossiers klanten/Accountantskantoren/Stolwijk Kelderman/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09D0D96-1E72-5040-8592-30B96CC510BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{03872ADE-C179-2844-903B-A0ECEA9B24EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D5BBAC-8B60-5145-B130-98CF3736CC8B}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="980" windowWidth="29040" windowHeight="15840" xr2:uid="{49C958C6-D2FF-584E-AD71-3F4695707476}"/>
+    <workbookView xWindow="10700" yWindow="1420" windowWidth="29040" windowHeight="15840" xr2:uid="{49C958C6-D2FF-584E-AD71-3F4695707476}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>team_id</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>style_client</t>
+  </si>
+  <si>
+    <t>cyclus_client</t>
+  </si>
+  <si>
+    <t>kind_client</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E035B-E838-EB4B-BCCD-61C331C6C7EE}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -479,10 +485,12 @@
     <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="16" max="16" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -527,6 +535,12 @@
       </c>
       <c r="O1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -536,17 +550,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DD313D66A4E1D498DECA7E431013699" ma:contentTypeVersion="16" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="17988ba657af8679d95b79677d931dcd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48a954cf-03d8-4390-a92a-4d821969c6b1" xmlns:ns3="e4e9a31a-bce8-42ae-9195-c4b051282fe8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e94fdc89655ad0885856647dfce954a3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DD313D66A4E1D498DECA7E431013699" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d93393a77528be7d3810f2f9bd2b7b92">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48a954cf-03d8-4390-a92a-4d821969c6b1" xmlns:ns3="e4e9a31a-bce8-42ae-9195-c4b051282fe8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="929777621e109701f1bd7638c29144fb" ns2:_="" ns3:_="">
     <xsd:import namespace="48a954cf-03d8-4390-a92a-4d821969c6b1"/>
     <xsd:import namespace="e4e9a31a-bce8-42ae-9195-c4b051282fe8"/>
     <xsd:element name="properties">
@@ -570,6 +575,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -645,6 +651,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e4e9a31a-bce8-42ae-9195-c4b051282fe8" elementFormDefault="qualified">
@@ -787,6 +798,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -799,6 +819,10 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B83E72DA-42B6-4057-BECF-73F5669DFBC0}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8984EB8-FF90-4F12-B30D-E8D19D26209F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -806,38 +830,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A45B5-FF41-4859-837E-874847F09FA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="48a954cf-03d8-4390-a92a-4d821969c6b1"/>
-    <ds:schemaRef ds:uri="e4e9a31a-bce8-42ae-9195-c4b051282fe8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF947CD-3D08-4F6C-B9BF-26A7FAD98042}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e4e9a31a-bce8-42ae-9195-c4b051282fe8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="48a954cf-03d8-4390-a92a-4d821969c6b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e4e9a31a-bce8-42ae-9195-c4b051282fe8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>